--- a/Danh_sach_uy_quyen_mau.xlsx
+++ b/Danh_sach_uy_quyen_mau.xlsx
@@ -1,38 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\bedhcd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACAAB9-2617-4CD3-9627-D75E26943D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3615" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>CCCD Nguoi uy quyen (BAT BUOC)</t>
+  </si>
+  <si>
+    <t>CCCD Nguoi nhan (BAT BUOC)</t>
+  </si>
+  <si>
+    <t>So phieu uy quyen (BAT BUOC)</t>
+  </si>
+  <si>
+    <t>Tai lieu uy quyen</t>
+  </si>
+  <si>
+    <t>Ngay uy quyen (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Ghi chu</t>
+  </si>
+  <si>
+    <t>001090001234</t>
+  </si>
+  <si>
+    <t>001090009012</t>
+  </si>
+  <si>
+    <t>UQ-001</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>Uy quyen bieu quyet</t>
+  </si>
+  <si>
+    <t>001090005678</t>
+  </si>
+  <si>
+    <t>UQ-002</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>Uy quyen toan phan</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>ngày cấp</t>
+  </si>
+  <si>
+    <t>Nguyễn Cung D</t>
+  </si>
+  <si>
+    <t>001090009013</t>
+  </si>
+  <si>
+    <t>Le Van C</t>
+  </si>
+  <si>
+    <t>c@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,8 +130,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCBCBC"/>
-        <bgColor rgb="00BCBCBC"/>
+        <fgColor rgb="FFBCBCBC"/>
+        <bgColor rgb="FFBCBCBC"/>
       </patternFill>
     </fill>
   </fills>
@@ -56,86 +144,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,112 +458,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CCCD Nguoi uy quyen (BAT BUOC)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CCCD Nguoi nhan (BAT BUOC)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>So phieu uy quyen (BAT BUOC)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Tai lieu uy quyen</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Ngay uy quyen (YYYY-MM-DD)</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Ghi chu</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>001090001234</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001090009012</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>300</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>UQ-001</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Uy quyen bieu quyet</t>
-        </is>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44562</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>001090005678</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001090009012</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>UQ-002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Uy quyen toan phan</t>
-        </is>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{DFCD85E5-9804-41AE-9E3C-2DBB0625E34F}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{D6D5ADC8-5F3B-40DB-AFB6-C1EA839DF0F8}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Danh_sach_uy_quyen_mau.xlsx
+++ b/Danh_sach_uy_quyen_mau.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\bedhcd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACAAB9-2617-4CD3-9627-D75E26943D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="2430" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CCCD Nguoi uy quyen (BAT BUOC)</t>
   </si>
@@ -40,9 +34,6 @@
     <t>Ghi chu</t>
   </si>
   <si>
-    <t>001090001234</t>
-  </si>
-  <si>
     <t>001090009012</t>
   </si>
   <si>
@@ -89,12 +80,18 @@
   </si>
   <si>
     <t>c@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nơi cấp </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,25 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,83 +493,89 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1090001234</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>150</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="3">
         <v>42797</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{DFCD85E5-9804-41AE-9E3C-2DBB0625E34F}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{D6D5ADC8-5F3B-40DB-AFB6-C1EA839DF0F8}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Danh_sach_uy_quyen_mau.xlsx
+++ b/Danh_sach_uy_quyen_mau.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\project_dhcd\bedhcd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7BF54-65F5-4E04-8F58-CB250809F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="2430" windowWidth="21600" windowHeight="11390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>CCCD Nguoi uy quyen (BAT BUOC)</t>
   </si>
@@ -86,12 +97,30 @@
   </si>
   <si>
     <t xml:space="preserve">Nơi cấp </t>
+  </si>
+  <si>
+    <t>001090001234</t>
+  </si>
+  <si>
+    <t>Le Van D</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,14 +174,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,128 +483,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1090001234</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
-        <v>44562</v>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>150</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3">
-        <v>42797</v>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44563</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>